--- a/biology/Botanique/Saponaria_caespitosa/Saponaria_caespitosa.xlsx
+++ b/biology/Botanique/Saponaria_caespitosa/Saponaria_caespitosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La saponaire cespiteuse Écouter ou saponaire gazonnante Écouter (Saponaria caespitosa DC.) est une plante herbacée de la famille des Caryophyllaceae, endémique des Pyrénées, qui pousse dans les éboulis, les rochers et qui peut atteindre l'altitude de 2 100 m.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite plante de 10 à 20 cm, aux fleurs rose vif et au calice rougeâtre et velu.
 </t>
